--- a/docentes/Zarate Amezcua Eladio Jorge Estadisticos 2020.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge Estadisticos 2020.xlsx
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1007,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1030,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1053,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
